--- a/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H2">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I2">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J2">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.9344947017189</v>
+        <v>53.11961066666667</v>
       </c>
       <c r="N2">
-        <v>47.9344947017189</v>
+        <v>159.358832</v>
       </c>
       <c r="O2">
-        <v>0.05990339531033451</v>
+        <v>0.06433641347643956</v>
       </c>
       <c r="P2">
-        <v>0.05990339531033451</v>
+        <v>0.06591776041258574</v>
       </c>
       <c r="Q2">
-        <v>38.35445149461509</v>
+        <v>43.00797405860267</v>
       </c>
       <c r="R2">
-        <v>38.35445149461509</v>
+        <v>387.071766527424</v>
       </c>
       <c r="S2">
-        <v>0.02390456450418997</v>
+        <v>0.02171301777094682</v>
       </c>
       <c r="T2">
-        <v>0.02390456450418997</v>
+        <v>0.02655130476278538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H3">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I3">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J3">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.870050181689</v>
+        <v>110.577273</v>
       </c>
       <c r="N3">
-        <v>101.870050181689</v>
+        <v>331.731819</v>
       </c>
       <c r="O3">
-        <v>0.1273062733693217</v>
+        <v>0.1339269069848316</v>
       </c>
       <c r="P3">
-        <v>0.1273062733693217</v>
+        <v>0.137218742705602</v>
       </c>
       <c r="Q3">
-        <v>81.51060990129697</v>
+        <v>89.52822562081199</v>
       </c>
       <c r="R3">
-        <v>81.51060990129697</v>
+        <v>805.754030587308</v>
       </c>
       <c r="S3">
-        <v>0.05080181194704303</v>
+        <v>0.04519924494135043</v>
       </c>
       <c r="T3">
-        <v>0.05080181194704303</v>
+        <v>0.05527094115362338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H4">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I4">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J4">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>291.33059421066</v>
+        <v>300.8465373333333</v>
       </c>
       <c r="N4">
-        <v>291.33059421066</v>
+        <v>902.539612</v>
       </c>
       <c r="O4">
-        <v>0.3640737606517424</v>
+        <v>0.3643736649406249</v>
       </c>
       <c r="P4">
-        <v>0.3640737606517424</v>
+        <v>0.3733297311484065</v>
       </c>
       <c r="Q4">
-        <v>233.1061423319743</v>
+        <v>243.5785938727093</v>
       </c>
       <c r="R4">
-        <v>233.1061423319743</v>
+        <v>2192.207344854384</v>
       </c>
       <c r="S4">
-        <v>0.1452843307244248</v>
+        <v>0.1229731567958495</v>
       </c>
       <c r="T4">
-        <v>0.1452843307244248</v>
+        <v>0.150375125105699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H5">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I5">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J5">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>301.586534560263</v>
+        <v>301.688924</v>
       </c>
       <c r="N5">
-        <v>301.586534560263</v>
+        <v>905.066772</v>
       </c>
       <c r="O5">
-        <v>0.3768905359794991</v>
+        <v>0.3653939310196403</v>
       </c>
       <c r="P5">
-        <v>0.3768905359794991</v>
+        <v>0.3743750746998971</v>
       </c>
       <c r="Q5">
-        <v>241.3123614465862</v>
+        <v>244.260627183056</v>
       </c>
       <c r="R5">
-        <v>241.3123614465862</v>
+        <v>2198.345644647504</v>
       </c>
       <c r="S5">
-        <v>0.1503988894396837</v>
+        <v>0.123317488323016</v>
       </c>
       <c r="T5">
-        <v>0.1503988894396837</v>
+        <v>0.1507961836344432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.800143022958365</v>
+        <v>0.809644</v>
       </c>
       <c r="H6">
-        <v>0.800143022958365</v>
+        <v>2.428932</v>
       </c>
       <c r="I6">
-        <v>0.399051913173709</v>
+        <v>0.3374918898595159</v>
       </c>
       <c r="J6">
-        <v>0.399051913173709</v>
+        <v>0.4027944001221849</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.4749504834208</v>
+        <v>59.4215545</v>
       </c>
       <c r="N6">
-        <v>57.4749504834208</v>
+        <v>118.843109</v>
       </c>
       <c r="O6">
-        <v>0.07182603468910241</v>
+        <v>0.07196908357846375</v>
       </c>
       <c r="P6">
-        <v>0.07182603468910241</v>
+        <v>0.04915869103350864</v>
       </c>
       <c r="Q6">
-        <v>45.98818062418666</v>
+        <v>48.110305071598</v>
       </c>
       <c r="R6">
-        <v>45.98818062418666</v>
+        <v>288.661830429588</v>
       </c>
       <c r="S6">
-        <v>0.02866231655836751</v>
+        <v>0.02428898202835319</v>
       </c>
       <c r="T6">
-        <v>0.02866231655836751</v>
+        <v>0.01980084546563395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H7">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I7">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J7">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.9344947017189</v>
+        <v>53.11961066666667</v>
       </c>
       <c r="N7">
-        <v>47.9344947017189</v>
+        <v>159.358832</v>
       </c>
       <c r="O7">
-        <v>0.05990339531033451</v>
+        <v>0.06433641347643956</v>
       </c>
       <c r="P7">
-        <v>0.05990339531033451</v>
+        <v>0.06591776041258574</v>
       </c>
       <c r="Q7">
-        <v>7.46114625001817</v>
+        <v>13.638566277888</v>
       </c>
       <c r="R7">
-        <v>7.46114625001817</v>
+        <v>122.747096500992</v>
       </c>
       <c r="S7">
-        <v>0.004650189087798462</v>
+        <v>0.006885570372566385</v>
       </c>
       <c r="T7">
-        <v>0.004650189087798462</v>
+        <v>0.008419874167479377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H8">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I8">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J8">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.870050181689</v>
+        <v>110.577273</v>
       </c>
       <c r="N8">
-        <v>101.870050181689</v>
+        <v>331.731819</v>
       </c>
       <c r="O8">
-        <v>0.1273062733693217</v>
+        <v>0.1339269069848316</v>
       </c>
       <c r="P8">
-        <v>0.1273062733693217</v>
+        <v>0.137218742705602</v>
       </c>
       <c r="Q8">
-        <v>15.85637540631082</v>
+        <v>28.390935997296</v>
       </c>
       <c r="R8">
-        <v>15.85637540631082</v>
+        <v>255.518423975664</v>
       </c>
       <c r="S8">
-        <v>0.009882549063595005</v>
+        <v>0.01433345586107179</v>
       </c>
       <c r="T8">
-        <v>0.009882549063595005</v>
+        <v>0.01752736348700801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H9">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I9">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J9">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>291.33059421066</v>
+        <v>300.8465373333333</v>
       </c>
       <c r="N9">
-        <v>291.33059421066</v>
+        <v>902.539612</v>
       </c>
       <c r="O9">
-        <v>0.3640737606517424</v>
+        <v>0.3643736649406249</v>
       </c>
       <c r="P9">
-        <v>0.3640737606517424</v>
+        <v>0.3733297311484065</v>
       </c>
       <c r="Q9">
-        <v>45.34647092947212</v>
+        <v>77.24295015340802</v>
       </c>
       <c r="R9">
-        <v>45.34647092947212</v>
+        <v>695.1865513806721</v>
       </c>
       <c r="S9">
-        <v>0.02826236843781046</v>
+        <v>0.03899689734457115</v>
       </c>
       <c r="T9">
-        <v>0.02826236843781046</v>
+        <v>0.0476865315140215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H10">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I10">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J10">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>301.586534560263</v>
+        <v>301.688924</v>
       </c>
       <c r="N10">
-        <v>301.586534560263</v>
+        <v>905.066772</v>
       </c>
       <c r="O10">
-        <v>0.3768905359794991</v>
+        <v>0.3653939310196403</v>
       </c>
       <c r="P10">
-        <v>0.3768905359794991</v>
+        <v>0.3743750746998971</v>
       </c>
       <c r="Q10">
-        <v>46.94283845886856</v>
+        <v>77.459234614848</v>
       </c>
       <c r="R10">
-        <v>46.94283845886856</v>
+        <v>697.133111533632</v>
       </c>
       <c r="S10">
-        <v>0.02925731085236199</v>
+        <v>0.03910609077805926</v>
       </c>
       <c r="T10">
-        <v>0.02925731085236199</v>
+        <v>0.047820056395787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.15565296549899</v>
+        <v>0.256752</v>
       </c>
       <c r="H11">
-        <v>0.15565296549899</v>
+        <v>0.7702560000000001</v>
       </c>
       <c r="I11">
-        <v>0.07762813883433103</v>
+        <v>0.1070244671796622</v>
       </c>
       <c r="J11">
-        <v>0.07762813883433103</v>
+        <v>0.1277330132998839</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.4749504834208</v>
+        <v>59.4215545</v>
       </c>
       <c r="N11">
-        <v>57.4749504834208</v>
+        <v>118.843109</v>
       </c>
       <c r="O11">
-        <v>0.07182603468910241</v>
+        <v>0.07196908357846375</v>
       </c>
       <c r="P11">
-        <v>0.07182603468910241</v>
+        <v>0.04915869103350864</v>
       </c>
       <c r="Q11">
-        <v>8.946146484652056</v>
+        <v>15.256602960984</v>
       </c>
       <c r="R11">
-        <v>8.946146484652056</v>
+        <v>91.539617765904</v>
       </c>
       <c r="S11">
-        <v>0.005575721392765119</v>
+        <v>0.007702452823393662</v>
       </c>
       <c r="T11">
-        <v>0.005575721392765119</v>
+        <v>0.006279187735588045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H12">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I12">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J12">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.9344947017189</v>
+        <v>53.11961066666667</v>
       </c>
       <c r="N12">
-        <v>47.9344947017189</v>
+        <v>159.358832</v>
       </c>
       <c r="O12">
-        <v>0.05990339531033451</v>
+        <v>0.06433641347643956</v>
       </c>
       <c r="P12">
-        <v>0.05990339531033451</v>
+        <v>0.06591776041258574</v>
       </c>
       <c r="Q12">
-        <v>50.29834189188522</v>
+        <v>8.807302274680888</v>
       </c>
       <c r="R12">
-        <v>50.29834189188522</v>
+        <v>79.26572047212801</v>
       </c>
       <c r="S12">
-        <v>0.03134864171834606</v>
+        <v>0.004446457081276886</v>
       </c>
       <c r="T12">
-        <v>0.03134864171834606</v>
+        <v>0.005437256042667518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H13">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I13">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J13">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>101.870050181689</v>
+        <v>110.577273</v>
       </c>
       <c r="N13">
-        <v>101.870050181689</v>
+        <v>331.731819</v>
       </c>
       <c r="O13">
-        <v>0.1273062733693217</v>
+        <v>0.1339269069848316</v>
       </c>
       <c r="P13">
-        <v>0.1273062733693217</v>
+        <v>0.137218742705602</v>
       </c>
       <c r="Q13">
-        <v>106.8936815641108</v>
+        <v>18.333859299764</v>
       </c>
       <c r="R13">
-        <v>106.8936815641108</v>
+        <v>165.004733697876</v>
       </c>
       <c r="S13">
-        <v>0.06662191235868366</v>
+        <v>0.009256037316321523</v>
       </c>
       <c r="T13">
-        <v>0.06662191235868366</v>
+        <v>0.01131854955740914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1281,49 +1281,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H14">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I14">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J14">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>291.33059421066</v>
+        <v>300.8465373333333</v>
       </c>
       <c r="N14">
-        <v>291.33059421066</v>
+        <v>902.539612</v>
       </c>
       <c r="O14">
-        <v>0.3640737606517424</v>
+        <v>0.3643736649406249</v>
       </c>
       <c r="P14">
-        <v>0.3640737606517424</v>
+        <v>0.3733297311484065</v>
       </c>
       <c r="Q14">
-        <v>305.6973046729206</v>
+        <v>49.88075701858311</v>
       </c>
       <c r="R14">
-        <v>305.6973046729206</v>
+        <v>448.926813167248</v>
       </c>
       <c r="S14">
-        <v>0.190527061489507</v>
+        <v>0.02518281289179061</v>
       </c>
       <c r="T14">
-        <v>0.190527061489507</v>
+        <v>0.03079427037400598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.04931411512473</v>
+        <v>0.1658013333333333</v>
       </c>
       <c r="H15">
-        <v>1.04931411512473</v>
+        <v>0.497404</v>
       </c>
       <c r="I15">
-        <v>0.5233199479919598</v>
+        <v>0.06911260421604337</v>
       </c>
       <c r="J15">
-        <v>0.5233199479919598</v>
+        <v>0.08248544866565852</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>301.586534560263</v>
+        <v>301.688924</v>
       </c>
       <c r="N15">
-        <v>301.586534560263</v>
+        <v>905.066772</v>
       </c>
       <c r="O15">
-        <v>0.3768905359794991</v>
+        <v>0.3653939310196403</v>
       </c>
       <c r="P15">
-        <v>0.3768905359794991</v>
+        <v>0.3743750746998971</v>
       </c>
       <c r="Q15">
-        <v>316.4590076456362</v>
+        <v>50.02042585109866</v>
       </c>
       <c r="R15">
-        <v>316.4590076456362</v>
+        <v>450.183832659888</v>
       </c>
       <c r="S15">
-        <v>0.1972343356874533</v>
+        <v>0.02525332613750465</v>
       </c>
       <c r="T15">
-        <v>0.1972343356874533</v>
+        <v>0.03088049600586044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1658013333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.497404</v>
+      </c>
+      <c r="I16">
+        <v>0.06911260421604337</v>
+      </c>
+      <c r="J16">
+        <v>0.08248544866565852</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.4215545</v>
+      </c>
+      <c r="N16">
+        <v>118.843109</v>
+      </c>
+      <c r="O16">
+        <v>0.07196908357846375</v>
+      </c>
+      <c r="P16">
+        <v>0.04915869103350864</v>
+      </c>
+      <c r="Q16">
+        <v>9.852172964839333</v>
+      </c>
+      <c r="R16">
+        <v>59.113037789036</v>
+      </c>
+      <c r="S16">
+        <v>0.004973970789149712</v>
+      </c>
+      <c r="T16">
+        <v>0.004054876685715445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.1668055</v>
+      </c>
+      <c r="H17">
+        <v>2.333611</v>
+      </c>
+      <c r="I17">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J17">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>53.11961066666667</v>
+      </c>
+      <c r="N17">
+        <v>159.358832</v>
+      </c>
+      <c r="O17">
+        <v>0.06433641347643956</v>
+      </c>
+      <c r="P17">
+        <v>0.06591776041258574</v>
+      </c>
+      <c r="Q17">
+        <v>61.98025388372534</v>
+      </c>
+      <c r="R17">
+        <v>371.8815233023521</v>
+      </c>
+      <c r="S17">
+        <v>0.03129136825164948</v>
+      </c>
+      <c r="T17">
+        <v>0.02550932543965346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.1668055</v>
+      </c>
+      <c r="H18">
+        <v>2.333611</v>
+      </c>
+      <c r="I18">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J18">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>110.577273</v>
+      </c>
+      <c r="N18">
+        <v>331.731819</v>
+      </c>
+      <c r="O18">
+        <v>0.1339269069848316</v>
+      </c>
+      <c r="P18">
+        <v>0.137218742705602</v>
+      </c>
+      <c r="Q18">
+        <v>129.0221703114015</v>
+      </c>
+      <c r="R18">
+        <v>774.1330218684091</v>
+      </c>
+      <c r="S18">
+        <v>0.06513816886608789</v>
+      </c>
+      <c r="T18">
+        <v>0.05310188850756144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.1668055</v>
+      </c>
+      <c r="H19">
+        <v>2.333611</v>
+      </c>
+      <c r="I19">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J19">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>300.8465373333333</v>
+      </c>
+      <c r="N19">
+        <v>902.539612</v>
+      </c>
+      <c r="O19">
+        <v>0.3643736649406249</v>
+      </c>
+      <c r="P19">
+        <v>0.3733297311484065</v>
+      </c>
+      <c r="Q19">
+        <v>351.0293944164887</v>
+      </c>
+      <c r="R19">
+        <v>2106.176366498933</v>
+      </c>
+      <c r="S19">
+        <v>0.1772207979084136</v>
+      </c>
+      <c r="T19">
+        <v>0.1444738041546801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="H16">
-        <v>1.04931411512473</v>
-      </c>
-      <c r="I16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="J16">
-        <v>0.5233199479919598</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.4749504834208</v>
-      </c>
-      <c r="N16">
-        <v>57.4749504834208</v>
-      </c>
-      <c r="O16">
-        <v>0.07182603468910241</v>
-      </c>
-      <c r="P16">
-        <v>0.07182603468910241</v>
-      </c>
-      <c r="Q16">
-        <v>60.30927680834837</v>
-      </c>
-      <c r="R16">
-        <v>60.30927680834837</v>
-      </c>
-      <c r="S16">
-        <v>0.03758799673796977</v>
-      </c>
-      <c r="T16">
-        <v>0.03758799673796977</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.1668055</v>
+      </c>
+      <c r="H20">
+        <v>2.333611</v>
+      </c>
+      <c r="I20">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J20">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>301.688924</v>
+      </c>
+      <c r="N20">
+        <v>905.066772</v>
+      </c>
+      <c r="O20">
+        <v>0.3653939310196403</v>
+      </c>
+      <c r="P20">
+        <v>0.3743750746998971</v>
+      </c>
+      <c r="Q20">
+        <v>352.012295812282</v>
+      </c>
+      <c r="R20">
+        <v>2112.073774873692</v>
+      </c>
+      <c r="S20">
+        <v>0.1777170257810604</v>
+      </c>
+      <c r="T20">
+        <v>0.1448783386638064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.1668055</v>
+      </c>
+      <c r="H21">
+        <v>2.333611</v>
+      </c>
+      <c r="I21">
+        <v>0.4863710387447785</v>
+      </c>
+      <c r="J21">
+        <v>0.3869871379122726</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.4215545</v>
+      </c>
+      <c r="N21">
+        <v>118.843109</v>
+      </c>
+      <c r="O21">
+        <v>0.07196908357846375</v>
+      </c>
+      <c r="P21">
+        <v>0.04915869103350864</v>
+      </c>
+      <c r="Q21">
+        <v>69.33339660914976</v>
+      </c>
+      <c r="R21">
+        <v>277.333586436599</v>
+      </c>
+      <c r="S21">
+        <v>0.0350036779375672</v>
+      </c>
+      <c r="T21">
+        <v>0.01902378114657121</v>
       </c>
     </row>
   </sheetData>
